--- a/NewYearStickers/Extraction/NewYearMenu.xlsx
+++ b/NewYearStickers/Extraction/NewYearMenu.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5B49D90-8033-46FA-901B-147D3AFCCDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotso\source\repos\NewYearStickers\NewYearStickers\Extraction\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364A3223-E2A2-407F-AB46-B1E855F2AF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hold" sheetId="1" r:id="rId1"/>
-    <sheet name="Menu" sheetId="2" r:id="rId2"/>
+    <sheet name="Retter" sheetId="2" r:id="rId2"/>
     <sheet name="TotalMængder" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>Forret</t>
   </si>
@@ -108,13 +113,46 @@
   </si>
   <si>
     <t>Produceret</t>
+  </si>
+  <si>
+    <t>Fisk I lag</t>
+  </si>
+  <si>
+    <t>fiskesause /m safran</t>
+  </si>
+  <si>
+    <t>Fjerkræ ballotine</t>
+  </si>
+  <si>
+    <t>Kalvefilet</t>
+  </si>
+  <si>
+    <t>Æbler og løg</t>
+  </si>
+  <si>
+    <t>Vintergrønt</t>
+  </si>
+  <si>
+    <t>Knuste Kartofler</t>
+  </si>
+  <si>
+    <t>Svampesauce</t>
+  </si>
+  <si>
+    <t>Konfekt og passion frugs kage</t>
+  </si>
+  <si>
+    <t>Appelsin kompot</t>
+  </si>
+  <si>
+    <t>Vanilje is</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,18 +520,18 @@
   <dimension ref="A1:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -510,52 +548,49 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
       </c>
       <c r="I4" t="s">
         <v>0</v>
@@ -573,635 +608,1034 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
       </c>
       <c r="I5">
         <f>B101</f>
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="J5">
         <f t="shared" ref="J5:M5" si="0">C101</f>
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>194</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
       <c r="D6">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6" t="s">
         <v>7</v>
       </c>
-      <c r="I6">
-        <v>250</v>
-      </c>
-      <c r="J6">
-        <v>75</v>
-      </c>
-      <c r="K6">
-        <v>100</v>
-      </c>
-      <c r="L6">
-        <v>100</v>
-      </c>
-      <c r="M6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
       <c r="D8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>9</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>9</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>8</v>
+      </c>
+      <c r="C51">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>8</v>
+      </c>
+      <c r="E51">
+        <v>8</v>
+      </c>
+      <c r="F51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>6</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>4</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64">
+        <v>7</v>
+      </c>
+      <c r="D64">
+        <v>7</v>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>6</v>
       </c>
       <c r="B101">
         <f>SUM(B2:B100)</f>
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="C101">
         <f t="shared" ref="C101:F101" si="1">SUM(C2:C100)</f>
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="D101">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>194</v>
       </c>
       <c r="E101">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="F101">
         <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>7</v>
       </c>
       <c r="B102">
         <f>I6</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="C102">
         <f t="shared" ref="C102:F102" si="2">J6</f>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D102">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F102">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1211,27 +1645,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56D55F4-0A50-47F2-AA4D-226D4D8DCF2E}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1263,21 +1697,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F2">
         <v>175</v>
@@ -1286,27 +1720,27 @@
         <v>13</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F3">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -1315,38 +1749,40 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F4">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F5">
-        <v>150</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5">
-        <v>40</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1362,13 +1798,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -1379,198 +1815,198 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3">
-        <f>Menu!B2*Hold!B101</f>
-        <v>28</v>
+        <f>Retter!B2*Hold!B101</f>
+        <v>179</v>
       </c>
       <c r="C3">
-        <f>Menu!B2*Hold!B102</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <f>Retter!B2*Hold!B102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4">
-        <f>Menu!B3*Hold!B101</f>
-        <v>1400</v>
+        <f>Retter!B3*Hold!B101</f>
+        <v>8950</v>
       </c>
       <c r="C4">
-        <f>Menu!B3*Hold!B102</f>
-        <v>12500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <f>Retter!B3*Hold!B102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <f>Menu!D2*Hold!C101</f>
-        <v>20</v>
+        <f>Retter!D2*Hold!C101</f>
+        <v>99</v>
       </c>
       <c r="C6">
-        <f>Menu!D2*Hold!C102</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <f>Retter!D2*Hold!C102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8">
-        <f>Menu!F2*Hold!D101</f>
-        <v>5075</v>
+        <f>Retter!F2*Hold!D101</f>
+        <v>33950</v>
       </c>
       <c r="C8">
-        <f>Menu!F2*Hold!D102</f>
-        <v>17500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <f>Retter!F2*Hold!D102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9">
-        <f>Menu!F3*Hold!D101</f>
-        <v>6380</v>
+        <f>Retter!F3*Hold!D101</f>
+        <v>11640</v>
       </c>
       <c r="C9">
-        <f>Menu!F3*Hold!D102</f>
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <f>Retter!F3*Hold!D102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10">
-        <f>Menu!F4*Hold!D101</f>
-        <v>5075</v>
+        <f>Retter!F4*Hold!D101</f>
+        <v>13580</v>
       </c>
       <c r="C10">
-        <f>Menu!F4*Hold!D102</f>
-        <v>17500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <f>Retter!F4*Hold!D102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11">
-        <f>Menu!F5*Hold!D101</f>
-        <v>4350</v>
+        <f>Retter!F5*Hold!D101</f>
+        <v>38800</v>
       </c>
       <c r="C11">
-        <f>Menu!F5*Hold!D102</f>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <f>Retter!F5*Hold!D102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
-        <f>Menu!H2*Hold!E101</f>
-        <v>25</v>
+        <f>Retter!H2*Hold!E101</f>
+        <v>6600</v>
       </c>
       <c r="C13">
-        <f>Menu!H2*Hold!E102</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <f>Retter!H2*Hold!E102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14">
-        <f>Menu!H3*Hold!E101</f>
-        <v>25</v>
+        <f>Retter!H3*Hold!E101</f>
+        <v>110</v>
       </c>
       <c r="C14">
-        <f>Menu!H3*Hold!E102</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <f>Retter!H3*Hold!E102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
-        <f>Menu!J2*Hold!F101</f>
-        <v>32</v>
+        <f>Retter!J2*Hold!F101</f>
+        <v>172</v>
       </c>
       <c r="C16">
-        <f>Menu!J2*Hold!F102</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <f>Retter!J2*Hold!F102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17">
-        <f>Menu!J3*Hold!F101</f>
-        <v>32</v>
+        <f>Retter!J3*Hold!F101</f>
+        <v>172</v>
       </c>
       <c r="C17">
-        <f>Menu!J3*Hold!F102</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <f>Retter!J3*Hold!F102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18">
-        <f>Menu!J4*Hold!F101</f>
-        <v>1280</v>
+        <f>Retter!J4*Hold!F101</f>
+        <v>5160</v>
       </c>
       <c r="C18">
-        <f>Menu!J4*Hold!F102</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <f>Retter!J4*Hold!F102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19">
-        <f>Menu!J5*Hold!F101</f>
-        <v>1280</v>
+        <f>Retter!J5*Hold!F101</f>
+        <v>0</v>
       </c>
       <c r="C19">
-        <f>Menu!J5*Hold!F102</f>
-        <v>6000</v>
+        <f>Retter!J5*Hold!F102</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/NewYearStickers/Extraction/NewYearMenu.xlsx
+++ b/NewYearStickers/Extraction/NewYearMenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotso\source\repos\NewYearStickers\NewYearStickers\Extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364A3223-E2A2-407F-AB46-B1E855F2AF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B2B402-6CF4-4C31-92DA-9727386D90E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/NewYearStickers/Extraction/NewYearMenu.xlsx
+++ b/NewYearStickers/Extraction/NewYearMenu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotso\source\repos\NewYearStickers\NewYearStickers\Extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B2B402-6CF4-4C31-92DA-9727386D90E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B314C4F4-E72D-4221-9D5B-46544A30FA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hold" sheetId="1" r:id="rId1"/>
@@ -118,9 +118,6 @@
     <t>Fisk I lag</t>
   </si>
   <si>
-    <t>fiskesause /m safran</t>
-  </si>
-  <si>
     <t>Fjerkræ ballotine</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>Vanilje is</t>
+  </si>
+  <si>
+    <t>fiskesause m safran</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -1647,8 +1647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56D55F4-0A50-47F2-AA4D-226D4D8DCF2E}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1705,13 +1705,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2">
         <v>175</v>
@@ -1723,7 +1723,7 @@
         <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1731,13 +1731,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3">
         <v>60</v>
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -1757,13 +1757,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4">
         <v>70</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4">
         <v>30</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5">
         <v>200</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6">
         <v>100</v>

--- a/NewYearStickers/Extraction/NewYearMenu.xlsx
+++ b/NewYearStickers/Extraction/NewYearMenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotso\source\repos\NewYearStickers\NewYearStickers\Extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B314C4F4-E72D-4221-9D5B-46544A30FA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CF128E7-C152-4466-B5DE-FBBD151CDA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Forret</t>
   </si>
@@ -115,37 +115,46 @@
     <t>Produceret</t>
   </si>
   <si>
-    <t>Fisk I lag</t>
-  </si>
-  <si>
     <t>Fjerkræ ballotine</t>
   </si>
   <si>
     <t>Kalvefilet</t>
   </si>
   <si>
-    <t>Æbler og løg</t>
-  </si>
-  <si>
-    <t>Vintergrønt</t>
-  </si>
-  <si>
-    <t>Knuste Kartofler</t>
-  </si>
-  <si>
     <t>Svampesauce</t>
   </si>
   <si>
-    <t>Konfekt og passion frugs kage</t>
-  </si>
-  <si>
     <t>Appelsin kompot</t>
   </si>
   <si>
     <t>Vanilje is</t>
   </si>
   <si>
-    <t>fiskesause m safran</t>
+    <t>Kompot</t>
+  </si>
+  <si>
+    <t>Valnød</t>
+  </si>
+  <si>
+    <t>Oliven</t>
+  </si>
+  <si>
+    <t>Konfekt kage</t>
+  </si>
+  <si>
+    <t>Fiskesauce</t>
+  </si>
+  <si>
+    <t>Fisk i lag</t>
+  </si>
+  <si>
+    <t>Lys garniture</t>
+  </si>
+  <si>
+    <t>Rød garniture</t>
+  </si>
+  <si>
+    <t>Knuste kartofler</t>
   </si>
 </sst>
 </file>
@@ -520,7 +529,7 @@
   <dimension ref="A1:M102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,10 +624,13 @@
       <c r="B5">
         <v>6</v>
       </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
       <c r="D5">
         <v>6</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>6</v>
       </c>
       <c r="H5" t="s">
@@ -626,23 +638,23 @@
       </c>
       <c r="I5">
         <f>B101</f>
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="J5">
         <f t="shared" ref="J5:M5" si="0">C101</f>
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>172</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -650,7 +662,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -722,6 +734,15 @@
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -788,6 +809,15 @@
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
@@ -921,9 +951,6 @@
       <c r="D28">
         <v>5</v>
       </c>
-      <c r="E28">
-        <v>5</v>
-      </c>
       <c r="F28">
         <v>5</v>
       </c>
@@ -1010,6 +1037,15 @@
       <c r="A35">
         <v>34</v>
       </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
@@ -1055,19 +1091,19 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1130,7 +1166,7 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>4</v>
       </c>
       <c r="D44">
@@ -1170,7 +1206,7 @@
       <c r="D46">
         <v>2</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>2</v>
       </c>
     </row>
@@ -1183,30 +1219,45 @@
       <c r="A48">
         <v>47</v>
       </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E50">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -1234,13 +1285,13 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F52">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1264,6 +1315,15 @@
       <c r="A54">
         <v>53</v>
       </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
@@ -1277,9 +1337,6 @@
       <c r="B56">
         <v>5</v>
       </c>
-      <c r="C56">
-        <v>5</v>
-      </c>
       <c r="D56">
         <v>5</v>
       </c>
@@ -1314,6 +1371,21 @@
       <c r="A58">
         <v>57</v>
       </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
@@ -1422,11 +1494,41 @@
       <c r="A67">
         <v>66</v>
       </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67">
+        <v>5</v>
+      </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
@@ -1442,26 +1544,101 @@
       <c r="A71">
         <v>70</v>
       </c>
+      <c r="B71">
+        <v>7</v>
+      </c>
+      <c r="C71">
+        <v>7</v>
+      </c>
+      <c r="D71">
+        <v>7</v>
+      </c>
+      <c r="E71">
+        <v>7</v>
+      </c>
+      <c r="F71">
+        <v>7</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <v>10</v>
+      </c>
+      <c r="E72">
+        <v>10</v>
+      </c>
+      <c r="F72">
+        <v>10</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73">
+        <v>4</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
@@ -1594,23 +1771,23 @@
       </c>
       <c r="B101">
         <f>SUM(B2:B100)</f>
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="C101">
         <f t="shared" ref="C101:F101" si="1">SUM(C2:C100)</f>
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="D101">
         <f t="shared" si="1"/>
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="E101">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="F101">
         <f t="shared" si="1"/>
-        <v>172</v>
+        <v>230</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -1647,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56D55F4-0A50-47F2-AA4D-226D4D8DCF2E}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1699,31 +1876,31 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2">
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1731,25 +1908,25 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F3">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -1757,29 +1934,41 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F4">
-        <v>70</v>
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J4">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F5">
         <v>200</v>
       </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F6">
         <v>100</v>
@@ -1826,7 +2015,7 @@
       </c>
       <c r="B3">
         <f>Retter!B2*Hold!B101</f>
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="C3">
         <f>Retter!B2*Hold!B102</f>
@@ -1839,7 +2028,7 @@
       </c>
       <c r="B4">
         <f>Retter!B3*Hold!B101</f>
-        <v>8950</v>
+        <v>13260</v>
       </c>
       <c r="C4">
         <f>Retter!B3*Hold!B102</f>
@@ -1857,7 +2046,7 @@
       </c>
       <c r="B6">
         <f>Retter!D2*Hold!C101</f>
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="C6">
         <f>Retter!D2*Hold!C102</f>
@@ -1875,7 +2064,7 @@
       </c>
       <c r="B8">
         <f>Retter!F2*Hold!D101</f>
-        <v>33950</v>
+        <v>43400</v>
       </c>
       <c r="C8">
         <f>Retter!F2*Hold!D102</f>
@@ -1888,7 +2077,7 @@
       </c>
       <c r="B9">
         <f>Retter!F3*Hold!D101</f>
-        <v>11640</v>
+        <v>22320</v>
       </c>
       <c r="C9">
         <f>Retter!F3*Hold!D102</f>
@@ -1901,7 +2090,7 @@
       </c>
       <c r="B10">
         <f>Retter!F4*Hold!D101</f>
-        <v>13580</v>
+        <v>12400</v>
       </c>
       <c r="C10">
         <f>Retter!F4*Hold!D102</f>
@@ -1914,7 +2103,7 @@
       </c>
       <c r="B11">
         <f>Retter!F5*Hold!D101</f>
-        <v>38800</v>
+        <v>49600</v>
       </c>
       <c r="C11">
         <f>Retter!F5*Hold!D102</f>
@@ -1932,7 +2121,7 @@
       </c>
       <c r="B13">
         <f>Retter!H2*Hold!E101</f>
-        <v>6600</v>
+        <v>8340</v>
       </c>
       <c r="C13">
         <f>Retter!H2*Hold!E102</f>
@@ -1945,7 +2134,7 @@
       </c>
       <c r="B14">
         <f>Retter!H3*Hold!E101</f>
-        <v>110</v>
+        <v>2085</v>
       </c>
       <c r="C14">
         <f>Retter!H3*Hold!E102</f>
@@ -1963,7 +2152,7 @@
       </c>
       <c r="B16">
         <f>Retter!J2*Hold!F101</f>
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="C16">
         <f>Retter!J2*Hold!F102</f>
@@ -1976,7 +2165,7 @@
       </c>
       <c r="B17">
         <f>Retter!J3*Hold!F101</f>
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="C17">
         <f>Retter!J3*Hold!F102</f>
@@ -1989,7 +2178,7 @@
       </c>
       <c r="B18">
         <f>Retter!J4*Hold!F101</f>
-        <v>5160</v>
+        <v>8050</v>
       </c>
       <c r="C18">
         <f>Retter!J4*Hold!F102</f>
